--- a/data/output/FV2410_FV2404/UTILMD/55102.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55102.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="375">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4493" uniqueCount="375">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1244,6 +1244,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U196" totalsRowShown="0">
+  <autoFilter ref="A1:U196"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,7 +1563,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11096,5 +11129,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55102.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55102.xlsx
@@ -2239,7 +2239,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4341,7 +4341,7 @@
         <v>348</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4561,7 +4561,7 @@
         <v>349</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4781,7 +4781,7 @@
         <v>350</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5001,7 +5001,7 @@
         <v>351</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5271,7 +5271,7 @@
         <v>352</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5475,7 +5475,7 @@
         <v>354</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5679,7 +5679,7 @@
         <v>356</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5883,7 +5883,7 @@
         <v>357</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6283,7 +6283,7 @@
         <v>359</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6591,7 +6591,7 @@
         <v>360</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7077,7 +7077,7 @@
         <v>364</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7793,7 +7793,7 @@
         <v>366</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8005,7 +8005,7 @@
         <v>367</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8475,7 +8475,7 @@
         <v>368</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8991,7 +8991,7 @@
         <v>370</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9711,7 +9711,7 @@
         <v>372</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -11093,7 +11093,7 @@
         <v>374</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11643,7 +11643,7 @@
         <v>375</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N194" s="2"/>
